--- a/data/Subset1_WithDialogActs/Math SW1 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math SW1 transcript.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1811,12 +1811,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2151,12 +2151,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2823,12 +2823,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2953,12 +2953,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3713,12 +3713,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5531,12 +5531,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5699,12 +5699,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5993,12 +5993,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6623,12 +6623,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6707,12 +6707,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7257,12 +7257,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7635,12 +7635,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7719,12 +7719,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8097,12 +8097,12 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8181,12 +8181,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8223,12 +8223,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8349,12 +8349,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9751,12 +9751,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9839,12 +9839,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10179,12 +10179,12 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10431,12 +10431,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11061,12 +11061,12 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11271,12 +11271,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11481,12 +11481,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11989,12 +11989,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12371,12 +12371,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12413,12 +12413,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12959,12 +12959,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13127,12 +13127,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13169,12 +13169,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13211,12 +13211,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15113,12 +15113,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16175,12 +16175,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16767,12 +16767,12 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17363,12 +17363,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17531,12 +17531,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17615,12 +17615,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18043,12 +18043,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18299,12 +18299,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18551,12 +18551,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18845,12 +18845,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19055,12 +19055,12 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19139,12 +19139,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19349,12 +19349,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19643,12 +19643,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19895,12 +19895,12 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19979,12 +19979,12 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20777,12 +20777,12 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20861,12 +20861,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20903,12 +20903,12 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20987,12 +20987,12 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21445,12 +21445,12 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21483,12 +21483,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21987,12 +21987,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22197,12 +22197,12 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22449,12 +22449,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22617,12 +22617,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22705,12 +22705,12 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22873,12 +22873,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23335,12 +23335,12 @@
       <c r="H543" t="inlineStr"/>
       <c r="I543" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23797,12 +23797,12 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23839,12 +23839,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24469,12 +24469,12 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24595,12 +24595,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25267,12 +25267,12 @@
       <c r="H589" t="inlineStr"/>
       <c r="I589" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25351,12 +25351,12 @@
       <c r="H591" t="inlineStr"/>
       <c r="I591" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
